--- a/src/main/resources/womenBoohooJeans.xlsx
+++ b/src/main/resources/womenBoohooJeans.xlsx
@@ -12,9 +12,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="126">
-  <si>
-    <t>Category</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="163">
+  <si>
+    <t>Id</t>
   </si>
   <si>
     <t>Image</t>
@@ -32,22 +32,40 @@
     <t>URL</t>
   </si>
   <si>
-    <t>WOMEN JEANS</t>
+    <t>women_boohoo_jeans_1</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/gzz83633_grey_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>Boohoo</t>
+  </si>
+  <si>
+    <t>WIDE LEG JEANS</t>
+  </si>
+  <si>
+    <t>$58.00</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/wide-leg-jeans/GZZ83633.html</t>
+  </si>
+  <si>
+    <t>women_boohoo_jeans_2</t>
   </si>
   <si>
     <t>https://media.boohoo.com/i/boohoo/gzz64010_washed%20black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
   </si>
   <si>
-    <t>Boohoo</t>
-  </si>
-  <si>
     <t>BASICS HIGH WAISTED BOYFRIEND JEANS</t>
   </si>
   <si>
     <t>$36.50</t>
   </si>
   <si>
-    <t>https://ca.boohoo.com/basics-high-waisted-boyfriend-jeans/GZZ64010.html?color=436</t>
+    <t>https://ca.boohoo.com/basics-high-waisted-boyfriend-jeans/GZZ64010.html</t>
+  </si>
+  <si>
+    <t>women_boohoo_jeans_3</t>
   </si>
   <si>
     <t>https://media.boohoo.com/i/boohoo/gzz30104_acid%20wash%20light%20blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
@@ -56,43 +74,244 @@
     <t>PLUS HIGH WAIST MOM JEANS</t>
   </si>
   <si>
+    <t>$32.50</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/plus-high-waist-mom-jeans/GZZ30104.html?color=946</t>
+  </si>
+  <si>
+    <t>women_boohoo_jeans_4</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/gzz75583_washed%20indigo_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>VINTAGE TINT INDIGO HIGH RISE STRAIGHT LEG JEANS</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/vintage-tint-indigo-high-rise-straight-leg-jeans/GZZ75583.html?color=609</t>
+  </si>
+  <si>
+    <t>women_boohoo_jeans_5</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/gzz64558_vintage%20wash_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>PLUS BASICS HIGH WAISTED SUPER WIDE LEG JEANS</t>
+  </si>
+  <si>
+    <t>$26.50</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/plus-basics-high-waisted-super-wide-leg-jeans/GZZ64558.html?color=424</t>
+  </si>
+  <si>
+    <t>women_boohoo_jeans_6</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/fzz70136_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>BASICS HIGH WAISTED SKINNY JEANS</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/basics-high-waisted-skinny-jeans/FZZ70136.html?color=105</t>
+  </si>
+  <si>
+    <t>women_boohoo_jeans_7</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/gzz75582_bright%20blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>BRIGHT BLUE HIGH RISE STRAIGHT LEG JEANS</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/bright-blue-high-rise-straight-leg-jeans-/GZZ75582.html?color=659</t>
+  </si>
+  <si>
+    <t>women_boohoo_jeans_8</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/gzz75584_brown_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>DIRTY WASH HIGH RISE MOM JEANS</t>
+  </si>
+  <si>
+    <t>$50.00</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/dirty-wash-high-rise-mom-jeans-/GZZ75584.html?color=109</t>
+  </si>
+  <si>
+    <t>women_boohoo_jeans_9</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/gzz74784_vintage%20blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>WASHED WIDE LEG DENIM JEAN</t>
+  </si>
+  <si>
+    <t>$40.00</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/washed-wide-leg-denim-jean/GZZ74784.html?color=432</t>
+  </si>
+  <si>
+    <t>women_boohoo_jeans_10</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/gzz72032_washed%20blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>TALL THE STRAIGHT LEG JEAN</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/tall-the-straight-leg-jean/GZZ72032.html?color=608</t>
+  </si>
+  <si>
+    <t>women_boohoo_jeans_11</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/gzz70780_mid%20blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>PLUS STRAIGHT LEG JEAN</t>
+  </si>
+  <si>
     <t>$46.50</t>
   </si>
   <si>
-    <t>https://ca.boohoo.com/plus-high-waist-mom-jeans/GZZ30104.html?color=946</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/gzz50797_light%20blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>PETITE HIGH WAIST SPLIT HEM JEANS</t>
-  </si>
-  <si>
-    <t>$32.50</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/petite-high-waist-split-hem-jeans/GZZ50797.html?color=564</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/gzz64558_vintage%20wash_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>PLUS BASICS HIGH WAISTED SUPER WIDE LEG JEANS</t>
-  </si>
-  <si>
-    <t>$58.00</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/plus-basics-high-waisted-super-wide-leg-jeans/GZZ64558.html?color=424</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/gzz83633_grey_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>WIDE LEG JEANS</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/wide-leg-jeans/GZZ83633.html</t>
+    <t>https://ca.boohoo.com/plus-straight-leg-jean/GZZ70780.html?color=340</t>
+  </si>
+  <si>
+    <t>women_boohoo_jeans_12</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/gzz72036_mid%20grey_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>TALL THE BOYFRIEND JEAN</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/tall-the-boyfriend-jean/GZZ72036.html?color=802</t>
+  </si>
+  <si>
+    <t>women_boohoo_jeans_13</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/gzz52953_denim-blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>PLUS ACID WASH FRAYED DETAIL FLARED JEAN</t>
+  </si>
+  <si>
+    <t>$53.00</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/plus-acid-wash-frayed-detail-flared-jean/GZZ52953.html?color=326</t>
+  </si>
+  <si>
+    <t>women_boohoo_jeans_14</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/gzz52683_light%20blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>EXTREME WIDE LEG JEANS</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/extreme-wide-leg-jeans/GZZ52683.html</t>
+  </si>
+  <si>
+    <t>women_boohoo_jeans_15</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/gzz17405_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>HIGH RISE WIDE LEG JEANS</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/high-rise-wide-leg-jeans/GZZ17405.html?color=105</t>
+  </si>
+  <si>
+    <t>women_boohoo_jeans_16</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/gzz64007_washed%20indigo_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>BASICS HIGH WAISTED MOM JEANS</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/basics-high-waisted-mom-jeans/GZZ64007.html?color=609</t>
+  </si>
+  <si>
+    <t>women_boohoo_jeans_17</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/gzz74499_khaki_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>PETITE SEAM DETAIL WASHED MOM JEAN</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/petite-seam-detail-washed-mom-jean-/GZZ74499.html?color=135</t>
+  </si>
+  <si>
+    <t>women_boohoo_jeans_18</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/gzz67904_acid%20wash%20dark%20blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>PLUS ACID WASH CARGO POCKET WIDE LEG JEAN</t>
+  </si>
+  <si>
+    <t>$38.00</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/plus-acid-wash-cargo-pocket-wide-leg-jean/GZZ67904.html?color=947</t>
+  </si>
+  <si>
+    <t>women_boohoo_jeans_19</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/gzz64014_vintage%20blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>BASICS HIGH WAISTED WIDE LEG JEANS</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/basics-high-waisted-wide-leg-jeans/GZZ64014.html</t>
+  </si>
+  <si>
+    <t>women_boohoo_jeans_20</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/gzz67352_mid%20blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>PETITE MID BLUE HIGH RISE MOM JEANS 28"</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/petite-mid-blue-high-rise-mom-jeans-28-/GZZ67352.html?color=340</t>
+  </si>
+  <si>
+    <t>women_boohoo_jeans_21</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/gzz65027_vintage%20wash_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/plus-high-waist-mom-jeans/GZZ65027.html?color=424</t>
+  </si>
+  <si>
+    <t>women_boohoo_jeans_22</t>
   </si>
   <si>
     <t>https://media.boohoo.com/i/boohoo/gzz70529_acid%20wash%20light%20blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
@@ -104,37 +323,22 @@
     <t>https://ca.boohoo.com/the-wide-leg-jean/GZZ70529.html?color=946</t>
   </si>
   <si>
-    <t>https://media.boohoo.com/i/boohoo/gzz75583_washed%20indigo_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>VINTAGE TINT INDIGO HIGH RISE STRAIGHT LEG JEANS</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/vintage-tint-indigo-high-rise-straight-leg-jeans/GZZ75583.html?color=609</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/gzz75582_bright%20blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>BRIGHT BLUE HIGH RISE STRAIGHT LEG JEANS</t>
-  </si>
-  <si>
-    <t>$40.00</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/bright-blue-high-rise-straight-leg-jeans-/GZZ75582.html?color=659</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/gzz72032_washed%20blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>TALL THE STRAIGHT LEG JEAN</t>
-  </si>
-  <si>
-    <t>$53.00</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/tall-the-straight-leg-jean/GZZ72032.html?color=608</t>
+    <t>women_boohoo_jeans_23</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/gzz73449_mid%20grey_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>PETITE WASHED WIDE LEG CARGO JEAN</t>
+  </si>
+  <si>
+    <t>$70.00</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/petite-washed-wide-leg-cargo-jean-/GZZ73449.html?color=802</t>
+  </si>
+  <si>
+    <t>women_boohoo_jeans_24</t>
   </si>
   <si>
     <t>https://media.boohoo.com/i/boohoo/gzz71869_stonewash_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
@@ -143,64 +347,61 @@
     <t>TALL STONEWASH MID RISE RIP THIGH BAGGY BOYFRIEND JEANS</t>
   </si>
   <si>
+    <t>$90.00</t>
+  </si>
+  <si>
     <t>https://ca.boohoo.com/tall-stonewash-mid-rise-rip-thigh-baggy-boyfriend-jeans/GZZ71869.html?color=221</t>
   </si>
   <si>
+    <t>women_boohoo_jeans_25</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/gzz51894_light%20blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>RAW HEM WIDE LEG JEANS</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/raw-hem-wide-leg-jeans/GZZ51894.html?color=564</t>
+  </si>
+  <si>
+    <t>women_boohoo_jeans_26</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/gzz66225_acid%20wash%20light%20blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>ACID WASH WIDE LEG CARGO JEANS</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/acid-wash-wide-leg-cargo-jeans/GZZ66225.html?color=946</t>
+  </si>
+  <si>
+    <t>women_boohoo_jeans_27</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/gzz72023_light%20khaki_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>TALL THE CARGO JEAN</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/tall-the-cargo-jean/GZZ72023.html?color=739</t>
+  </si>
+  <si>
+    <t>women_boohoo_jeans_28</t>
+  </si>
+  <si>
     <t>https://media.boohoo.com/i/boohoo/gzz64690_acid%20wash%20light%20blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
   </si>
   <si>
     <t>TALL LIGHT ACID WASH WIDE LEG JEANS</t>
   </si>
   <si>
-    <t>$38.00</t>
-  </si>
-  <si>
     <t>https://ca.boohoo.com/tall-light-acid-wash-wide-leg-jeans/GZZ64690.html?color=946</t>
   </si>
   <si>
-    <t>https://media.boohoo.com/i/boohoo/gzz67352_mid%20blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>PETITE MID BLUE HIGH RISE MOM JEANS 28"</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/petite-mid-blue-high-rise-mom-jeans-28-/GZZ67352.html?color=340</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/gzz70532_vintage%20wash_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>THE BOYFRIEND JEAN</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/the-boyfriend-jean-/GZZ70532.html</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/gzz17405_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>HIGH RISE WIDE LEG JEANS</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/high-rise-wide-leg-jeans/GZZ17405.html?color=105</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/gzz64007_washed%20indigo_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>BASICS HIGH WAISTED MOM JEANS</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/basics-high-waisted-mom-jeans/GZZ64007.html?color=609</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/gzz73449_mid%20grey_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>PETITE WASHED WIDE LEG CARGO JEAN</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/petite-washed-wide-leg-cargo-jean-/GZZ73449.html?color=802</t>
+    <t>women_boohoo_jeans_29</t>
   </si>
   <si>
     <t>https://media.boohoo.com/i/boohoo/gzz64016_washed%20indigo_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
@@ -212,184 +413,94 @@
     <t>https://ca.boohoo.com/basics-high-waisted-split-hem-straight-leg-jeans/GZZ64016.html?color=609</t>
   </si>
   <si>
-    <t>https://media.boohoo.com/i/boohoo/gzz70780_mid%20blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>PLUS STRAIGHT LEG JEAN</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/plus-straight-leg-jean/GZZ70780.html?color=340</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/gzz58583_mid%20blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>VINTAGE WASH WIDE LEG DISTRESSED JEANS</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/vintage-wash-wide-leg-distressed-jeans/GZZ58583.html</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/gzz01914_mid%20blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>PREMIUM TAILORED WIDE LEG JEANS</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/premium-tailored-wide-leg-jeans/GZZ01914.html</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/gzz64003_vintage%20wash_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>BASICS HIGH WAISTED SUPER WIDE LEG JEANS</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/basics-high-waisted-super-wide-leg-jeans/GZZ64003.html</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/gzz72023_light%20khaki_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>TALL THE CARGO JEAN</t>
-  </si>
-  <si>
-    <t>$50.00</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/tall-the-cargo-jean/GZZ72023.html?color=739</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/gzz72036_mid%20grey_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>TALL THE BOYFRIEND JEAN</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/tall-the-boyfriend-jean/GZZ72036.html?color=802</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/gzz52953_denim-blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>PLUS ACID WASH FRAYED DETAIL FLARED JEAN</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/plus-acid-wash-frayed-detail-flared-jean/GZZ52953.html</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/gzz75584_brown_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>DIRTY WASH HIGH RISE MOM JEANS</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/dirty-wash-high-rise-mom-jeans-/GZZ75584.html?color=109</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/gzz74499_khaki_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>PETITE SEAM DETAIL WASHED MOM JEAN</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/petite-seam-detail-washed-mom-jean-/GZZ74499.html?color=135</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/gzz74784_vintage%20blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>WASHED WIDE LEG DENIM JEAN</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/washed-wide-leg-denim-jean/GZZ74784.html?color=432</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/gzz67913_mid%20blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>PLUS BAGGY STRAIGHT LEG DENIM JEAN</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/plus-baggy-straight-leg-denim-jean/GZZ67913.html?color=340</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/gzz64692_acid%20wash%20light%20blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>TALL RIPPED KNEE SLIM STRAIGHT LEG JEANS</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/tall-ripped-knee-slim-straight-leg-jeans/GZZ64692.html?color=946</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/gzz64014_vintage%20blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>BASICS HIGH WAISTED WIDE LEG JEANS</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/basics-high-waisted-wide-leg-jeans/GZZ64014.html</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/gzz64569_mid%20blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>PLUS BASICS HIGH WAISTED WIDE LEG JEANS</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/plus-basics-high-waisted-wide-leg-jeans/GZZ64569.html?color=340</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/gzz64015_washed%20black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/basics-high-waisted-split-hem-straight-leg-jeans/GZZ64015.html</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/gzz77428_light%20blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>WIDE LEG JEANS WITH FRONT AND BACK WAISTBAND PANEL</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/wide-leg-jeans-with-front-and-back-waistband-panel/GZZ77428.html?color=564</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/gzz04539_indigo_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>BASICS HIGH WAISTED RIPPED FLARED JEANS</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/basics-high-waisted-ripped-flared-jeans/GZZ04539.html?color=132</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/gzz74730_ecru_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>BASICS CARGO POCKET JEANS</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/basics-cargo-pocket-jeans------/GZZ74730.html?color=124</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/gzz64620_mid%20blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>PETITE BASICS BOYFRIEND JEAN</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/petite-basics-boyfriend-jean--/GZZ64620.html?color=340</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/gzz67563_khaki_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>PLUS SEAM POCKET DETAIL BOYFRIEND JEAN</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/plus-seam-pocket-detail-boyfriend-jean-/GZZ67563.html?color=135</t>
+    <t>women_boohoo_jeans_30</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/gzz68993_vintage%20wash_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>VINTAGE WASH RIPPED KNEE STRAIGHT LEG JEANS</t>
+  </si>
+  <si>
+    <t>$25.00</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/vintage-wash-ripped-knee-straight-leg-jeans/GZZ68993.html?color=424</t>
+  </si>
+  <si>
+    <t>women_boohoo_jeans_31</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/gzz71400_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>THE PLUS STRAIGHT LEG JEAN</t>
+  </si>
+  <si>
+    <t>$37.00</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/the-plus-straight-leg-jean/GZZ71400.html?color=105</t>
+  </si>
+  <si>
+    <t>women_boohoo_jeans_32</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/fzz11504_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>BASICS HIGH WAISTED DISCO SKINNY JEANS</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/basics-high-waisted-disco-skinny-jeans/FZZ11504.html?color=105</t>
+  </si>
+  <si>
+    <t>women_boohoo_jeans_33</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/gzz65374_light%20blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>PLUS ACID CROSSOVER WAIST STRAIGHT LEG JEANS</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/plus-acid-crossover-waist-straight-leg-jeans/GZZ65374.html?color=564</t>
+  </si>
+  <si>
+    <t>women_boohoo_jeans_34</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/gzz63165_white_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>METALLIC COATED STRAIGHT LEG JEANS</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/metallic-coated-straight-leg-jeans/GZZ63165.html?color=173</t>
+  </si>
+  <si>
+    <t>women_boohoo_jeans_35</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/gzz75831_light%20blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>PLUS BASICS BOYFRIEND JEANS</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/plus-basics-boyfriend-jeans---/GZZ75831.html?color=564</t>
+  </si>
+  <si>
+    <t>women_boohoo_jeans_36</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/gzz68491_grey_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>TALL FOLDED HEM SLIM MOM JEAN</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/tall-folded-hem-slim-mom-jean/GZZ68491.html?color=131</t>
   </si>
 </sst>
 </file>
@@ -434,7 +545,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -482,722 +593,702 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="C5" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="E5" t="s" s="0">
-        <v>22</v>
-      </c>
       <c r="F5" t="s" s="0">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="C11" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="E11" t="s" s="0">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="F11" t="s" s="0">
-        <v>43</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C12" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="E12" t="s" s="0">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="F12" t="s" s="0">
-        <v>47</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="C13" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="E13" t="s" s="0">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F13" t="s" s="0">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>6</v>
+        <v>62</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="E14" t="s" s="0">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="F14" t="s" s="0">
-        <v>53</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="E15" t="s" s="0">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="F15" t="s" s="0">
-        <v>56</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="E16" t="s" s="0">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="F16" t="s" s="0">
-        <v>59</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="E17" t="s" s="0">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="F17" t="s" s="0">
-        <v>62</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>6</v>
+        <v>79</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="E18" t="s" s="0">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="F18" t="s" s="0">
-        <v>65</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="E19" t="s" s="0">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="F19" t="s" s="0">
-        <v>68</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>6</v>
+        <v>88</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="C20" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="E20" t="s" s="0">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F20" t="s" s="0">
-        <v>71</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="C21" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="E21" t="s" s="0">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="F21" t="s" s="0">
-        <v>74</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>6</v>
+        <v>96</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="E22" t="s" s="0">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="F22" t="s" s="0">
-        <v>77</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>6</v>
+        <v>99</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="C23" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="E23" t="s" s="0">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="F23" t="s" s="0">
-        <v>81</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>6</v>
+        <v>103</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="C24" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="E24" t="s" s="0">
-        <v>10</v>
+        <v>106</v>
       </c>
       <c r="F24" t="s" s="0">
-        <v>84</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>6</v>
+        <v>108</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="C25" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="E25" t="s" s="0">
-        <v>14</v>
+        <v>111</v>
       </c>
       <c r="F25" t="s" s="0">
-        <v>87</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>6</v>
+        <v>113</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="C26" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="E26" t="s" s="0">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="F26" t="s" s="0">
-        <v>90</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>6</v>
+        <v>117</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>91</v>
+        <v>118</v>
       </c>
       <c r="C27" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="E27" t="s" s="0">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="F27" t="s" s="0">
-        <v>93</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>6</v>
+        <v>121</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>94</v>
+        <v>122</v>
       </c>
       <c r="C28" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="E28" t="s" s="0">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="F28" t="s" s="0">
-        <v>96</v>
+        <v>124</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>6</v>
+        <v>125</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="C29" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="E29" t="s" s="0">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="F29" t="s" s="0">
-        <v>99</v>
+        <v>128</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>6</v>
+        <v>129</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="C30" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>101</v>
+        <v>131</v>
       </c>
       <c r="E30" t="s" s="0">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="F30" t="s" s="0">
-        <v>102</v>
+        <v>132</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>6</v>
+        <v>133</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>103</v>
+        <v>134</v>
       </c>
       <c r="C31" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>104</v>
+        <v>135</v>
       </c>
       <c r="E31" t="s" s="0">
-        <v>22</v>
+        <v>136</v>
       </c>
       <c r="F31" t="s" s="0">
-        <v>105</v>
+        <v>137</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>6</v>
+        <v>138</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>106</v>
+        <v>139</v>
       </c>
       <c r="C32" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>107</v>
+        <v>140</v>
       </c>
       <c r="E32" t="s" s="0">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="F32" t="s" s="0">
-        <v>108</v>
+        <v>142</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>6</v>
+        <v>143</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="C33" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>64</v>
+        <v>145</v>
       </c>
       <c r="E33" t="s" s="0">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F33" t="s" s="0">
-        <v>110</v>
+        <v>146</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>6</v>
+        <v>147</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>111</v>
+        <v>148</v>
       </c>
       <c r="C34" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D34" t="s" s="0">
-        <v>112</v>
+        <v>149</v>
       </c>
       <c r="E34" t="s" s="0">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="F34" t="s" s="0">
-        <v>113</v>
+        <v>150</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>6</v>
+        <v>151</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>114</v>
+        <v>152</v>
       </c>
       <c r="C35" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D35" t="s" s="0">
-        <v>115</v>
+        <v>153</v>
       </c>
       <c r="E35" t="s" s="0">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="F35" t="s" s="0">
-        <v>116</v>
+        <v>154</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>6</v>
+        <v>155</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>117</v>
+        <v>156</v>
       </c>
       <c r="C36" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D36" t="s" s="0">
-        <v>118</v>
+        <v>157</v>
       </c>
       <c r="E36" t="s" s="0">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F36" t="s" s="0">
-        <v>119</v>
+        <v>158</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>6</v>
+        <v>159</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="C37" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D37" t="s" s="0">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="E37" t="s" s="0">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="F37" t="s" s="0">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="B38" t="s" s="0">
-        <v>123</v>
-      </c>
-      <c r="C38" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D38" t="s" s="0">
-        <v>124</v>
-      </c>
-      <c r="E38" t="s" s="0">
-        <v>80</v>
-      </c>
-      <c r="F38" t="s" s="0">
-        <v>125</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/womenBoohooJeans.xlsx
+++ b/src/main/resources/womenBoohooJeans.xlsx
@@ -35,63 +35,63 @@
     <t>women_boohoo_jeans_1</t>
   </si>
   <si>
+    <t>https://media.boohoo.com/i/boohoo/gzz64010_washed%20black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>Boohoo</t>
+  </si>
+  <si>
+    <t>BASICS HIGH WAISTED BOYFRIEND JEANS</t>
+  </si>
+  <si>
+    <t>$36.50</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/basics-high-waisted-boyfriend-jeans/GZZ64010.html?color=436</t>
+  </si>
+  <si>
+    <t>women_boohoo_jeans_2</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/gzz30104_acid%20wash%20light%20blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>PLUS HIGH WAIST MOM JEANS</t>
+  </si>
+  <si>
+    <t>$32.50</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/plus-high-waist-mom-jeans/GZZ30104.html</t>
+  </si>
+  <si>
+    <t>women_boohoo_jeans_3</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/gzz75583_washed%20indigo_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>VINTAGE TINT INDIGO HIGH RISE STRAIGHT LEG JEANS</t>
+  </si>
+  <si>
+    <t>$58.00</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/vintage-tint-indigo-high-rise-straight-leg-jeans/GZZ75583.html?color=609</t>
+  </si>
+  <si>
+    <t>women_boohoo_jeans_4</t>
+  </si>
+  <si>
     <t>https://media.boohoo.com/i/boohoo/gzz83633_grey_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
   </si>
   <si>
-    <t>Boohoo</t>
-  </si>
-  <si>
     <t>WIDE LEG JEANS</t>
   </si>
   <si>
-    <t>$58.00</t>
-  </si>
-  <si>
     <t>https://ca.boohoo.com/wide-leg-jeans/GZZ83633.html</t>
   </si>
   <si>
-    <t>women_boohoo_jeans_2</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/gzz64010_washed%20black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>BASICS HIGH WAISTED BOYFRIEND JEANS</t>
-  </si>
-  <si>
-    <t>$36.50</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/basics-high-waisted-boyfriend-jeans/GZZ64010.html</t>
-  </si>
-  <si>
-    <t>women_boohoo_jeans_3</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/gzz30104_acid%20wash%20light%20blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>PLUS HIGH WAIST MOM JEANS</t>
-  </si>
-  <si>
-    <t>$32.50</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/plus-high-waist-mom-jeans/GZZ30104.html?color=946</t>
-  </si>
-  <si>
-    <t>women_boohoo_jeans_4</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/gzz75583_washed%20indigo_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>VINTAGE TINT INDIGO HIGH RISE STRAIGHT LEG JEANS</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/vintage-tint-indigo-high-rise-straight-leg-jeans/GZZ75583.html?color=609</t>
-  </si>
-  <si>
     <t>women_boohoo_jeans_5</t>
   </si>
   <si>
@@ -140,13 +140,28 @@
     <t>DIRTY WASH HIGH RISE MOM JEANS</t>
   </si>
   <si>
+    <t>$53.00</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/dirty-wash-high-rise-mom-jeans-/GZZ75584.html?color=109</t>
+  </si>
+  <si>
+    <t>women_boohoo_jeans_9</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/gzz52683_light%20blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>EXTREME WIDE LEG JEANS</t>
+  </si>
+  <si>
     <t>$50.00</t>
   </si>
   <si>
-    <t>https://ca.boohoo.com/dirty-wash-high-rise-mom-jeans-/GZZ75584.html?color=109</t>
-  </si>
-  <si>
-    <t>women_boohoo_jeans_9</t>
+    <t>https://ca.boohoo.com/extreme-wide-leg-jeans/GZZ52683.html</t>
+  </si>
+  <si>
+    <t>women_boohoo_jeans_10</t>
   </si>
   <si>
     <t>https://media.boohoo.com/i/boohoo/gzz74784_vintage%20blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
@@ -161,7 +176,7 @@
     <t>https://ca.boohoo.com/washed-wide-leg-denim-jean/GZZ74784.html?color=432</t>
   </si>
   <si>
-    <t>women_boohoo_jeans_10</t>
+    <t>women_boohoo_jeans_11</t>
   </si>
   <si>
     <t>https://media.boohoo.com/i/boohoo/gzz72032_washed%20blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
@@ -173,7 +188,7 @@
     <t>https://ca.boohoo.com/tall-the-straight-leg-jean/GZZ72032.html?color=608</t>
   </si>
   <si>
-    <t>women_boohoo_jeans_11</t>
+    <t>women_boohoo_jeans_12</t>
   </si>
   <si>
     <t>https://media.boohoo.com/i/boohoo/gzz70780_mid%20blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
@@ -182,13 +197,25 @@
     <t>PLUS STRAIGHT LEG JEAN</t>
   </si>
   <si>
+    <t>https://ca.boohoo.com/plus-straight-leg-jean/GZZ70780.html?color=340</t>
+  </si>
+  <si>
+    <t>women_boohoo_jeans_13</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/gzz17405_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>HIGH RISE WIDE LEG JEANS</t>
+  </si>
+  <si>
     <t>$46.50</t>
   </si>
   <si>
-    <t>https://ca.boohoo.com/plus-straight-leg-jean/GZZ70780.html?color=340</t>
-  </si>
-  <si>
-    <t>women_boohoo_jeans_12</t>
+    <t>https://ca.boohoo.com/high-rise-wide-leg-jeans/GZZ17405.html?color=105</t>
+  </si>
+  <si>
+    <t>women_boohoo_jeans_14</t>
   </si>
   <si>
     <t>https://media.boohoo.com/i/boohoo/gzz72036_mid%20grey_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
@@ -200,7 +227,7 @@
     <t>https://ca.boohoo.com/tall-the-boyfriend-jean/GZZ72036.html?color=802</t>
   </si>
   <si>
-    <t>women_boohoo_jeans_13</t>
+    <t>women_boohoo_jeans_15</t>
   </si>
   <si>
     <t>https://media.boohoo.com/i/boohoo/gzz52953_denim-blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
@@ -209,36 +236,9 @@
     <t>PLUS ACID WASH FRAYED DETAIL FLARED JEAN</t>
   </si>
   <si>
-    <t>$53.00</t>
-  </si>
-  <si>
     <t>https://ca.boohoo.com/plus-acid-wash-frayed-detail-flared-jean/GZZ52953.html?color=326</t>
   </si>
   <si>
-    <t>women_boohoo_jeans_14</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/gzz52683_light%20blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>EXTREME WIDE LEG JEANS</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/extreme-wide-leg-jeans/GZZ52683.html</t>
-  </si>
-  <si>
-    <t>women_boohoo_jeans_15</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/gzz17405_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>HIGH RISE WIDE LEG JEANS</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/high-rise-wide-leg-jeans/GZZ17405.html?color=105</t>
-  </si>
-  <si>
     <t>women_boohoo_jeans_16</t>
   </si>
   <si>
@@ -281,226 +281,226 @@
     <t>women_boohoo_jeans_19</t>
   </si>
   <si>
+    <t>https://media.boohoo.com/i/boohoo/gzz67352_mid%20blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>PETITE MID BLUE HIGH RISE MOM JEANS 28"</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/petite-mid-blue-high-rise-mom-jeans-28-/GZZ67352.html?color=340</t>
+  </si>
+  <si>
+    <t>women_boohoo_jeans_20</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/gzz65027_vintage%20wash_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/plus-high-waist-mom-jeans/GZZ65027.html?color=424</t>
+  </si>
+  <si>
+    <t>women_boohoo_jeans_21</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/gzz70529_acid%20wash%20light%20blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>THE WIDE LEG JEAN</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/the-wide-leg-jean/GZZ70529.html?color=946</t>
+  </si>
+  <si>
+    <t>women_boohoo_jeans_22</t>
+  </si>
+  <si>
     <t>https://media.boohoo.com/i/boohoo/gzz64014_vintage%20blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
   </si>
   <si>
     <t>BASICS HIGH WAISTED WIDE LEG JEANS</t>
   </si>
   <si>
+    <t>$70.00</t>
+  </si>
+  <si>
     <t>https://ca.boohoo.com/basics-high-waisted-wide-leg-jeans/GZZ64014.html</t>
   </si>
   <si>
-    <t>women_boohoo_jeans_20</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/gzz67352_mid%20blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>PETITE MID BLUE HIGH RISE MOM JEANS 28"</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/petite-mid-blue-high-rise-mom-jeans-28-/GZZ67352.html?color=340</t>
-  </si>
-  <si>
-    <t>women_boohoo_jeans_21</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/gzz65027_vintage%20wash_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/plus-high-waist-mom-jeans/GZZ65027.html?color=424</t>
-  </si>
-  <si>
-    <t>women_boohoo_jeans_22</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/gzz70529_acid%20wash%20light%20blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>THE WIDE LEG JEAN</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/the-wide-leg-jean/GZZ70529.html?color=946</t>
-  </si>
-  <si>
     <t>women_boohoo_jeans_23</t>
   </si>
   <si>
+    <t>https://media.boohoo.com/i/boohoo/gzz71869_stonewash_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>TALL STONEWASH MID RISE RIP THIGH BAGGY BOYFRIEND JEANS</t>
+  </si>
+  <si>
+    <t>$90.00</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/tall-stonewash-mid-rise-rip-thigh-baggy-boyfriend-jeans/GZZ71869.html?color=221</t>
+  </si>
+  <si>
+    <t>women_boohoo_jeans_24</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/gzz51894_light%20blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>RAW HEM WIDE LEG JEANS</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/raw-hem-wide-leg-jeans/GZZ51894.html?color=564</t>
+  </si>
+  <si>
+    <t>women_boohoo_jeans_25</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/gzz66225_acid%20wash%20light%20blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>ACID WASH WIDE LEG CARGO JEANS</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/acid-wash-wide-leg-cargo-jeans/GZZ66225.html?color=946</t>
+  </si>
+  <si>
+    <t>women_boohoo_jeans_26</t>
+  </si>
+  <si>
+    <t>https://media.boohoo.com/i/boohoo/gzz72023_light%20khaki_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>TALL THE CARGO JEAN</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/tall-the-cargo-jean/GZZ72023.html?color=739</t>
+  </si>
+  <si>
+    <t>women_boohoo_jeans_27</t>
+  </si>
+  <si>
     <t>https://media.boohoo.com/i/boohoo/gzz73449_mid%20grey_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
   </si>
   <si>
     <t>PETITE WASHED WIDE LEG CARGO JEAN</t>
   </si>
   <si>
-    <t>$70.00</t>
-  </si>
-  <si>
     <t>https://ca.boohoo.com/petite-washed-wide-leg-cargo-jean-/GZZ73449.html?color=802</t>
   </si>
   <si>
-    <t>women_boohoo_jeans_24</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/gzz71869_stonewash_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>TALL STONEWASH MID RISE RIP THIGH BAGGY BOYFRIEND JEANS</t>
-  </si>
-  <si>
-    <t>$90.00</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/tall-stonewash-mid-rise-rip-thigh-baggy-boyfriend-jeans/GZZ71869.html?color=221</t>
-  </si>
-  <si>
-    <t>women_boohoo_jeans_25</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/gzz51894_light%20blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>RAW HEM WIDE LEG JEANS</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/raw-hem-wide-leg-jeans/GZZ51894.html?color=564</t>
-  </si>
-  <si>
-    <t>women_boohoo_jeans_26</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/gzz66225_acid%20wash%20light%20blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>ACID WASH WIDE LEG CARGO JEANS</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/acid-wash-wide-leg-cargo-jeans/GZZ66225.html?color=946</t>
-  </si>
-  <si>
-    <t>women_boohoo_jeans_27</t>
-  </si>
-  <si>
-    <t>https://media.boohoo.com/i/boohoo/gzz72023_light%20khaki_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>TALL THE CARGO JEAN</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/tall-the-cargo-jean/GZZ72023.html?color=739</t>
-  </si>
-  <si>
     <t>women_boohoo_jeans_28</t>
   </si>
   <si>
-    <t>https://media.boohoo.com/i/boohoo/gzz64690_acid%20wash%20light%20blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>TALL LIGHT ACID WASH WIDE LEG JEANS</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/tall-light-acid-wash-wide-leg-jeans/GZZ64690.html?color=946</t>
+    <t>https://media.boohoo.com/i/boohoo/gzz68993_vintage%20wash_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>VINTAGE WASH RIPPED KNEE STRAIGHT LEG JEANS</t>
+  </si>
+  <si>
+    <t>$25.00</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/vintage-wash-ripped-knee-straight-leg-jeans/GZZ68993.html?color=424</t>
   </si>
   <si>
     <t>women_boohoo_jeans_29</t>
   </si>
   <si>
-    <t>https://media.boohoo.com/i/boohoo/gzz64016_washed%20indigo_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>BASICS HIGH WAISTED SPLIT HEM STRAIGHT LEG JEANS</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/basics-high-waisted-split-hem-straight-leg-jeans/GZZ64016.html?color=609</t>
+    <t>https://media.boohoo.com/i/boohoo/gzz71400_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>THE PLUS STRAIGHT LEG JEAN</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/the-plus-straight-leg-jean/GZZ71400.html?color=105</t>
   </si>
   <si>
     <t>women_boohoo_jeans_30</t>
   </si>
   <si>
-    <t>https://media.boohoo.com/i/boohoo/gzz68993_vintage%20wash_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>VINTAGE WASH RIPPED KNEE STRAIGHT LEG JEANS</t>
-  </si>
-  <si>
-    <t>$25.00</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/vintage-wash-ripped-knee-straight-leg-jeans/GZZ68993.html?color=424</t>
+    <t>https://media.boohoo.com/i/boohoo/fzz11504_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>BASICS HIGH WAISTED DISCO SKINNY JEANS</t>
+  </si>
+  <si>
+    <t>$37.00</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/basics-high-waisted-disco-skinny-jeans/FZZ11504.html?color=105</t>
   </si>
   <si>
     <t>women_boohoo_jeans_31</t>
   </si>
   <si>
-    <t>https://media.boohoo.com/i/boohoo/gzz71400_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>THE PLUS STRAIGHT LEG JEAN</t>
-  </si>
-  <si>
-    <t>$37.00</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/the-plus-straight-leg-jean/GZZ71400.html?color=105</t>
+    <t>https://media.boohoo.com/i/boohoo/gzz65374_light%20blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>PLUS ACID CROSSOVER WAIST STRAIGHT LEG JEANS</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/plus-acid-crossover-waist-straight-leg-jeans/GZZ65374.html?color=564</t>
   </si>
   <si>
     <t>women_boohoo_jeans_32</t>
   </si>
   <si>
-    <t>https://media.boohoo.com/i/boohoo/fzz11504_black_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>BASICS HIGH WAISTED DISCO SKINNY JEANS</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/basics-high-waisted-disco-skinny-jeans/FZZ11504.html?color=105</t>
+    <t>https://media.boohoo.com/i/boohoo/gzz52681_vintage%20blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>STRAIGHT LEG JEANS</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/straight-leg-jeans-/GZZ52681.html?color=432</t>
   </si>
   <si>
     <t>women_boohoo_jeans_33</t>
   </si>
   <si>
-    <t>https://media.boohoo.com/i/boohoo/gzz65374_light%20blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>PLUS ACID CROSSOVER WAIST STRAIGHT LEG JEANS</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/plus-acid-crossover-waist-straight-leg-jeans/GZZ65374.html?color=564</t>
+    <t>https://media.boohoo.com/i/boohoo/gzz63165_white_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>METALLIC COATED STRAIGHT LEG JEANS</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/metallic-coated-straight-leg-jeans/GZZ63165.html?color=173</t>
   </si>
   <si>
     <t>women_boohoo_jeans_34</t>
   </si>
   <si>
-    <t>https://media.boohoo.com/i/boohoo/gzz63165_white_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>METALLIC COATED STRAIGHT LEG JEANS</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/metallic-coated-straight-leg-jeans/GZZ63165.html?color=173</t>
+    <t>https://media.boohoo.com/i/boohoo/gzz75831_light%20blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>PLUS BASICS BOYFRIEND JEANS</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/plus-basics-boyfriend-jeans---/GZZ75831.html?color=564</t>
   </si>
   <si>
     <t>women_boohoo_jeans_35</t>
   </si>
   <si>
-    <t>https://media.boohoo.com/i/boohoo/gzz75831_light%20blue_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>PLUS BASICS BOYFRIEND JEANS</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/plus-basics-boyfriend-jeans---/GZZ75831.html?color=564</t>
+    <t>https://media.boohoo.com/i/boohoo/gzz68491_grey_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>TALL FOLDED HEM SLIM MOM JEAN</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/tall-folded-hem-slim-mom-jean/GZZ68491.html?color=131</t>
   </si>
   <si>
     <t>women_boohoo_jeans_36</t>
   </si>
   <si>
-    <t>https://media.boohoo.com/i/boohoo/gzz68491_grey_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
-  </si>
-  <si>
-    <t>TALL FOLDED HEM SLIM MOM JEAN</t>
-  </si>
-  <si>
-    <t>https://ca.boohoo.com/tall-folded-hem-slim-mom-jean/GZZ68491.html?color=131</t>
+    <t>https://media.boohoo.com/i/boohoo/gzz73794_mid%20wash_xl?w=900&amp;qlt=default&amp;fmt.jp2.qlt=70&amp;fmt=auto&amp;sm=fit</t>
+  </si>
+  <si>
+    <t>TALL MID WASH MID WAIST STRAIGHT FIT JEANS</t>
+  </si>
+  <si>
+    <t>https://ca.boohoo.com/tall-mid-wash-mid-waist-straight-fit-jeans/GZZ73794.html?color=702</t>
   </si>
 </sst>
 </file>
@@ -645,7 +645,7 @@
         <v>24</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s" s="0">
         <v>25</v>
@@ -685,7 +685,7 @@
         <v>33</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F7" t="s" s="0">
         <v>34</v>
@@ -705,7 +705,7 @@
         <v>37</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F8" t="s" s="0">
         <v>38</v>
@@ -765,27 +765,27 @@
         <v>51</v>
       </c>
       <c r="E11" t="s" s="0">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F11" t="s" s="0">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C12" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E12" t="s" s="0">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F12" t="s" s="0">
         <v>57</v>
@@ -805,7 +805,7 @@
         <v>60</v>
       </c>
       <c r="E13" t="s" s="0">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F13" t="s" s="0">
         <v>61</v>
@@ -865,7 +865,7 @@
         <v>73</v>
       </c>
       <c r="E16" t="s" s="0">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F16" t="s" s="0">
         <v>74</v>
@@ -885,7 +885,7 @@
         <v>77</v>
       </c>
       <c r="E17" t="s" s="0">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="F17" t="s" s="0">
         <v>78</v>
@@ -905,7 +905,7 @@
         <v>81</v>
       </c>
       <c r="E18" t="s" s="0">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="F18" t="s" s="0">
         <v>82</v>
@@ -945,7 +945,7 @@
         <v>90</v>
       </c>
       <c r="E20" t="s" s="0">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F20" t="s" s="0">
         <v>91</v>
@@ -962,30 +962,30 @@
         <v>8</v>
       </c>
       <c r="D21" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E21" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="F21" t="s" s="0">
         <v>94</v>
-      </c>
-      <c r="E21" t="s" s="0">
-        <v>56</v>
-      </c>
-      <c r="F21" t="s" s="0">
-        <v>95</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="B22" t="s" s="0">
         <v>96</v>
       </c>
-      <c r="B22" t="s" s="0">
+      <c r="C22" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D22" t="s" s="0">
         <v>97</v>
       </c>
-      <c r="C22" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D22" t="s" s="0">
-        <v>19</v>
-      </c>
       <c r="E22" t="s" s="0">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="F22" t="s" s="0">
         <v>98</v>
@@ -1005,47 +1005,47 @@
         <v>101</v>
       </c>
       <c r="E23" t="s" s="0">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="F23" t="s" s="0">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C24" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E24" t="s" s="0">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F24" t="s" s="0">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C25" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E25" t="s" s="0">
-        <v>111</v>
+        <v>65</v>
       </c>
       <c r="F25" t="s" s="0">
         <v>112</v>
@@ -1065,7 +1065,7 @@
         <v>115</v>
       </c>
       <c r="E26" t="s" s="0">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="F26" t="s" s="0">
         <v>116</v>
@@ -1085,7 +1085,7 @@
         <v>119</v>
       </c>
       <c r="E27" t="s" s="0">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F27" t="s" s="0">
         <v>120</v>
@@ -1105,7 +1105,7 @@
         <v>123</v>
       </c>
       <c r="E28" t="s" s="0">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="F28" t="s" s="0">
         <v>124</v>
@@ -1125,67 +1125,67 @@
         <v>127</v>
       </c>
       <c r="E29" t="s" s="0">
-        <v>47</v>
+        <v>128</v>
       </c>
       <c r="F29" t="s" s="0">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C30" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E30" t="s" s="0">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="F30" t="s" s="0">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C31" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E31" t="s" s="0">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F31" t="s" s="0">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C32" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E32" t="s" s="0">
-        <v>141</v>
+        <v>15</v>
       </c>
       <c r="F32" t="s" s="0">
         <v>142</v>
@@ -1205,7 +1205,7 @@
         <v>145</v>
       </c>
       <c r="E33" t="s" s="0">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="F33" t="s" s="0">
         <v>146</v>
@@ -1225,7 +1225,7 @@
         <v>149</v>
       </c>
       <c r="E34" t="s" s="0">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="F34" t="s" s="0">
         <v>150</v>
@@ -1245,7 +1245,7 @@
         <v>153</v>
       </c>
       <c r="E35" t="s" s="0">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F35" t="s" s="0">
         <v>154</v>
@@ -1265,7 +1265,7 @@
         <v>157</v>
       </c>
       <c r="E36" t="s" s="0">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="F36" t="s" s="0">
         <v>158</v>
@@ -1285,7 +1285,7 @@
         <v>161</v>
       </c>
       <c r="E37" t="s" s="0">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="F37" t="s" s="0">
         <v>162</v>
